--- a/excel/BookShelvesBelow15000.xlsx
+++ b/excel/BookShelvesBelow15000.xlsx
@@ -12,21 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Rhodes Solid Wood Bookshelf In Mahogany Finish</t>
+    <t>Aaron Engineered Wood Bookshelf In Wenge Finish</t>
   </si>
   <si>
-    <t>14755</t>
+    <t>805</t>
+  </si>
+  <si>
+    <t>Cyno Solid Wood Bookshelf In Honey Finish</t>
+  </si>
+  <si>
+    <t>43680</t>
   </si>
   <si>
     <t>Rhodes Solid Wood Bookshelf In Teak Finish</t>
   </si>
   <si>
-    <t>Theodore Engineered Wood Bookshelf In Rustic Walnut Finish</t>
-  </si>
-  <si>
-    <t>12814</t>
+    <t>16421</t>
   </si>
 </sst>
 </file>
@@ -90,15 +93,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
